--- a/assets/Goals.xlsx
+++ b/assets/Goals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop1123\Learning\09 - Python Projects\02 FitBot\DashBoard\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local-admin\Desktop\Learning\09 - Python Projects\02 FitBot\FitBot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF9953-5343-4DD2-A2ED-C8EC8EFDB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9816B4D-9CFE-4684-89FF-77204C17BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13185" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{DEE2EBF4-B26A-4DE1-B757-40B9A46DC93C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{DEE2EBF4-B26A-4DE1-B757-40B9A46DC93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Goal" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,8 +105,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,349 +747,349 @@
                   <c:v>78.512060776266054</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>78.414862295672705</c:v>
+                  <c:v>78.512060776266054</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.512060776266054</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78.447261789203822</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78.382462802141589</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>78.317663815079356</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>78.220465334486008</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="62">
+                  <c:v>78.252864828017124</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>78.188065840954891</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>78.123266853892659</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.02606837329931</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="65">
+                  <c:v>78.058467866830426</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>77.993668879768194</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>77.928869892705961</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>77.831671412112613</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="68">
+                  <c:v>77.864070905643729</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>77.799271918581496</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>77.734472931519264</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>77.637274450925915</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="71">
+                  <c:v>77.669673944457031</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.604874957394799</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>77.540075970332566</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>77.442877489739217</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="74">
+                  <c:v>77.475276983270334</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77.410477996208101</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>77.345679009145869</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>77.24848052855252</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="77">
+                  <c:v>77.280880022083636</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77.216081035021404</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>77.151282047959171</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>77.054083567365822</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="80">
+                  <c:v>77.086483060896938</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>77.021684073834706</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>76.956885086772473</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>76.859686606179125</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="83">
+                  <c:v>76.892086099710241</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.827287112648008</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>76.762488125585776</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>76.665289644992427</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="86">
+                  <c:v>76.697689138523543</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76.632890151461311</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>76.568091164399078</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>76.470892683805729</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="89">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>76.503292177336846</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>76.438493190274613</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>76.373694203212381</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>76.276495722619032</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="122">
+                  <c:v>76.308895216150148</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>76.244096229087916</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>76.179297242025683</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>76.082098761432334</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="125">
+                  <c:v>76.114498254963451</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>76.049699267901218</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>75.984900280838986</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>75.887701800245637</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="128">
+                  <c:v>75.920101293776753</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>75.85530230671452</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>75.790503319652288</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="131">
                   <c:v>75.725704332590055</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="132">
                   <c:v>75.660905345527823</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="133">
                   <c:v>75.59610635846559</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="134">
                   <c:v>75.531307371403358</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="135">
                   <c:v>75.466508384341125</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="136">
                   <c:v>75.401709397278893</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="137">
                   <c:v>75.33691041021666</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="138">
                   <c:v>75.272111423154428</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="139">
                   <c:v>75.207312436092195</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="140">
                   <c:v>75.142513449029963</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="141">
                   <c:v>75.07771446196773</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="142">
                   <c:v>75.012915474905498</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="143">
                   <c:v>74.948116487843265</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="144">
                   <c:v>74.883317500781033</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="145">
                   <c:v>74.8185185137188</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.753719526656567</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>74.688920539594335</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>74.624121552532102</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>74.55932256546987</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>74.494523578407637</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>74.429724591345405</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>74.364925604283172</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>74.30012661722094</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>74.235327630158707</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>74.170528643096475</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>74.105729656034242</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>74.04093066897201</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>73.976131681909777</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>73.911332694847545</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>73.846533707785312</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>73.78173472072308</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>73.716935733660847</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>73.652136746598615</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>73.587337759536382</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>73.522538772474149</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>73.457739785411917</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>73.392940798349684</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>73.328141811287452</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>73.263342824225219</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>73.198543837162987</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>73.133744850100754</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>73.068945863038522</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>73.004146875976289</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>72.939347888914057</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>72.874548901851824</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>72.809749914789592</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>72.744950927727359</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>72.680151940665127</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>72.615352953602894</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>72.550553966540662</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>72.485754979478429</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>72.420955992416197</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>72.356157005353964</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>72.291358018291731</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>72.226559031229499</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>72.161760044167266</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>72.096961057105034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,18 +2189,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23D29A1-52D0-44F8-ADBF-6C8E0BAAB1E7}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>DAY(D2)</f>
         <v>1</v>
@@ -2249,7 +2249,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">DAY(D3)</f>
         <v>2</v>
@@ -2278,7 +2278,7 @@
         <v>82.270402025875541</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2307,7 +2307,7 @@
         <v>82.140804051751076</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2336,7 +2336,7 @@
         <v>82.011206077626611</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2365,7 +2365,7 @@
         <v>81.881608103502145</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2394,7 +2394,7 @@
         <v>81.75201012937768</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2424,7 +2424,7 @@
         <v>81.622412155253215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2454,7 +2454,7 @@
         <v>81.49281418112875</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2484,7 +2484,7 @@
         <v>81.363216207004285</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>81.23361823287982</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2544,7 +2544,7 @@
         <v>81.104020258755355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2574,7 +2574,7 @@
         <v>80.97442228463089</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2604,7 +2604,7 @@
         <v>80.844824310506425</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2634,7 +2634,7 @@
         <v>80.71522633638196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2664,7 +2664,7 @@
         <v>80.585628362257495</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2694,7 +2694,7 @@
         <v>80.45603038813303</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2724,7 +2724,7 @@
         <v>80.326432414008565</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2754,7 +2754,7 @@
         <v>80.1968344398841</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2784,7 +2784,7 @@
         <v>80.067236465759635</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2814,7 +2814,7 @@
         <v>79.93763849163517</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2844,7 +2844,7 @@
         <v>79.808040517510705</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2874,7 +2874,7 @@
         <v>79.67844254338624</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2904,7 +2904,7 @@
         <v>79.548844569261774</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2934,7 +2934,7 @@
         <v>79.419246595137309</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2964,7 +2964,7 @@
         <v>79.289648621012844</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2994,7 +2994,7 @@
         <v>79.160050646888379</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3024,7 +3024,7 @@
         <v>79.030452672763914</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3054,7 +3054,7 @@
         <v>78.900854698639449</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3084,7 +3084,7 @@
         <v>78.771256724514984</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3114,7 +3114,7 @@
         <v>78.641658750390519</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3144,7 +3144,7 @@
         <v>78.512060776266054</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3162,18 +3162,18 @@
         <v>45689</v>
       </c>
       <c r="E33" s="2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="5"/>
-        <v>78.414862295672705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3192,18 +3192,18 @@
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="5"/>
-        <v>78.317663815079356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3222,18 +3222,18 @@
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="5"/>
-        <v>78.220465334486008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3252,18 +3252,18 @@
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="5"/>
-        <v>78.123266853892659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3282,18 +3282,18 @@
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="5"/>
-        <v>78.02606837329931</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3312,18 +3312,18 @@
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="5"/>
-        <v>77.928869892705961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3342,18 +3342,18 @@
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="5"/>
-        <v>77.831671412112613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3372,18 +3372,18 @@
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="5"/>
-        <v>77.734472931519264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3402,18 +3402,18 @@
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="5"/>
-        <v>77.637274450925915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3432,18 +3432,18 @@
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="5"/>
-        <v>77.540075970332566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3462,18 +3462,18 @@
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="5"/>
-        <v>77.442877489739217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3492,18 +3492,18 @@
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="5"/>
-        <v>77.345679009145869</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3522,18 +3522,18 @@
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="5"/>
-        <v>77.24848052855252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3552,18 +3552,18 @@
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="5"/>
-        <v>77.151282047959171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3582,18 +3582,18 @@
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="5"/>
-        <v>77.054083567365822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3612,18 +3612,18 @@
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="5"/>
-        <v>76.956885086772473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3642,18 +3642,18 @@
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="5"/>
-        <v>76.859686606179125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3672,18 +3672,18 @@
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="5"/>
-        <v>76.762488125585776</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3702,18 +3702,18 @@
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="5"/>
-        <v>76.665289644992427</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3732,18 +3732,18 @@
       </c>
       <c r="E52">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="5"/>
-        <v>76.568091164399078</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3762,18 +3762,18 @@
       </c>
       <c r="E53">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="5"/>
-        <v>76.470892683805729</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3792,18 +3792,18 @@
       </c>
       <c r="E54">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" si="5"/>
-        <v>76.373694203212381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3822,18 +3822,18 @@
       </c>
       <c r="E55">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="5"/>
-        <v>76.276495722619032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="E56">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="5"/>
-        <v>76.179297242025683</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3882,18 +3882,18 @@
       </c>
       <c r="E57">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="5"/>
-        <v>76.082098761432334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3912,18 +3912,18 @@
       </c>
       <c r="E58">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="5"/>
-        <v>75.984900280838986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3942,18 +3942,18 @@
       </c>
       <c r="E59">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="5"/>
-        <v>75.887701800245637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3972,18 +3972,18 @@
       </c>
       <c r="E60">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
-        <v>9.7198480593351372E-2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="5"/>
-        <v>75.790503319652288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.512060776266054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4009,10 +4009,10 @@
       </c>
       <c r="G61" s="4">
         <f t="shared" si="5"/>
-        <v>75.725704332590055</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.447261789203822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4039,10 +4039,10 @@
       </c>
       <c r="G62" s="4">
         <f t="shared" si="5"/>
-        <v>75.660905345527823</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.382462802141589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4069,10 +4069,10 @@
       </c>
       <c r="G63" s="4">
         <f t="shared" si="5"/>
-        <v>75.59610635846559</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.317663815079356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4099,10 +4099,10 @@
       </c>
       <c r="G64" s="4">
         <f t="shared" si="5"/>
-        <v>75.531307371403358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.252864828017124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4129,10 +4129,10 @@
       </c>
       <c r="G65" s="4">
         <f t="shared" si="5"/>
-        <v>75.466508384341125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.188065840954891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4159,10 +4159,10 @@
       </c>
       <c r="G66" s="4">
         <f t="shared" si="5"/>
-        <v>75.401709397278893</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.123266853892659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="7">DAY(D67)</f>
         <v>7</v>
@@ -4189,10 +4189,10 @@
       </c>
       <c r="G67" s="4">
         <f t="shared" si="5"/>
-        <v>75.33691041021666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78.058467866830426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -4219,10 +4219,10 @@
       </c>
       <c r="G68" s="4">
         <f t="shared" ref="G68:G131" si="12">G67-F68</f>
-        <v>75.272111423154428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.993668879768194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -4249,10 +4249,10 @@
       </c>
       <c r="G69" s="4">
         <f t="shared" si="12"/>
-        <v>75.207312436092195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.928869892705961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -4279,10 +4279,10 @@
       </c>
       <c r="G70" s="4">
         <f t="shared" si="12"/>
-        <v>75.142513449029963</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.864070905643729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -4309,10 +4309,10 @@
       </c>
       <c r="G71" s="4">
         <f t="shared" si="12"/>
-        <v>75.07771446196773</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.799271918581496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="7"/>
         <v>12</v>
@@ -4339,10 +4339,10 @@
       </c>
       <c r="G72" s="4">
         <f t="shared" si="12"/>
-        <v>75.012915474905498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.734472931519264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -4369,10 +4369,10 @@
       </c>
       <c r="G73" s="4">
         <f t="shared" si="12"/>
-        <v>74.948116487843265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.669673944457031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="7"/>
         <v>14</v>
@@ -4399,10 +4399,10 @@
       </c>
       <c r="G74" s="4">
         <f t="shared" si="12"/>
-        <v>74.883317500781033</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.604874957394799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -4429,10 +4429,10 @@
       </c>
       <c r="G75" s="4">
         <f t="shared" si="12"/>
-        <v>74.8185185137188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.540075970332566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="7"/>
         <v>16</v>
@@ -4459,10 +4459,10 @@
       </c>
       <c r="G76" s="4">
         <f t="shared" si="12"/>
-        <v>74.753719526656567</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.475276983270334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="7"/>
         <v>17</v>
@@ -4489,10 +4489,10 @@
       </c>
       <c r="G77" s="4">
         <f t="shared" si="12"/>
-        <v>74.688920539594335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.410477996208101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="7"/>
         <v>18</v>
@@ -4519,10 +4519,10 @@
       </c>
       <c r="G78" s="4">
         <f t="shared" si="12"/>
-        <v>74.624121552532102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.345679009145869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="7"/>
         <v>19</v>
@@ -4549,10 +4549,10 @@
       </c>
       <c r="G79" s="4">
         <f t="shared" si="12"/>
-        <v>74.55932256546987</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.280880022083636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -4579,10 +4579,10 @@
       </c>
       <c r="G80" s="4">
         <f t="shared" si="12"/>
-        <v>74.494523578407637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.216081035021404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="7"/>
         <v>21</v>
@@ -4609,10 +4609,10 @@
       </c>
       <c r="G81" s="4">
         <f t="shared" si="12"/>
-        <v>74.429724591345405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.151282047959171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="7"/>
         <v>22</v>
@@ -4639,10 +4639,10 @@
       </c>
       <c r="G82" s="4">
         <f t="shared" si="12"/>
-        <v>74.364925604283172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.086483060896938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="7"/>
         <v>23</v>
@@ -4669,10 +4669,10 @@
       </c>
       <c r="G83" s="4">
         <f t="shared" si="12"/>
-        <v>74.30012661722094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77.021684073834706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="7"/>
         <v>24</v>
@@ -4699,10 +4699,10 @@
       </c>
       <c r="G84" s="4">
         <f t="shared" si="12"/>
-        <v>74.235327630158707</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.956885086772473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="7"/>
         <v>25</v>
@@ -4729,10 +4729,10 @@
       </c>
       <c r="G85" s="4">
         <f t="shared" si="12"/>
-        <v>74.170528643096475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.892086099710241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="7"/>
         <v>26</v>
@@ -4759,10 +4759,10 @@
       </c>
       <c r="G86" s="4">
         <f t="shared" si="12"/>
-        <v>74.105729656034242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.827287112648008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="7"/>
         <v>27</v>
@@ -4789,10 +4789,10 @@
       </c>
       <c r="G87" s="4">
         <f t="shared" si="12"/>
-        <v>74.04093066897201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.762488125585776</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="7"/>
         <v>28</v>
@@ -4819,10 +4819,10 @@
       </c>
       <c r="G88" s="4">
         <f t="shared" si="12"/>
-        <v>73.976131681909777</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.697689138523543</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="7"/>
         <v>29</v>
@@ -4849,10 +4849,10 @@
       </c>
       <c r="G89" s="4">
         <f t="shared" si="12"/>
-        <v>73.911332694847545</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.632890151461311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -4879,10 +4879,10 @@
       </c>
       <c r="G90" s="4">
         <f t="shared" si="12"/>
-        <v>73.846533707785312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.568091164399078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="7"/>
         <v>31</v>
@@ -4909,10 +4909,10 @@
       </c>
       <c r="G91" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -4938,10 +4938,10 @@
       </c>
       <c r="G92" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -4968,10 +4968,10 @@
       </c>
       <c r="G93" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -4998,10 +4998,10 @@
       </c>
       <c r="G94" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -5028,10 +5028,10 @@
       </c>
       <c r="G95" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5058,10 +5058,10 @@
       </c>
       <c r="G96" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -5088,10 +5088,10 @@
       </c>
       <c r="G97" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -5118,10 +5118,10 @@
       </c>
       <c r="G98" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -5148,10 +5148,10 @@
       </c>
       <c r="G99" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -5178,10 +5178,10 @@
       </c>
       <c r="G100" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -5208,10 +5208,10 @@
       </c>
       <c r="G101" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -5238,10 +5238,10 @@
       </c>
       <c r="G102" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>12</v>
@@ -5268,10 +5268,10 @@
       </c>
       <c r="G103" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -5298,10 +5298,10 @@
       </c>
       <c r="G104" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>14</v>
@@ -5328,10 +5328,10 @@
       </c>
       <c r="G105" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -5358,10 +5358,10 @@
       </c>
       <c r="G106" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>16</v>
@@ -5388,10 +5388,10 @@
       </c>
       <c r="G107" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>17</v>
@@ -5418,10 +5418,10 @@
       </c>
       <c r="G108" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>18</v>
@@ -5448,10 +5448,10 @@
       </c>
       <c r="G109" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>19</v>
@@ -5478,10 +5478,10 @@
       </c>
       <c r="G110" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -5508,10 +5508,10 @@
       </c>
       <c r="G111" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>21</v>
@@ -5538,10 +5538,10 @@
       </c>
       <c r="G112" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>22</v>
@@ -5568,10 +5568,10 @@
       </c>
       <c r="G113" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="7"/>
         <v>23</v>
@@ -5598,10 +5598,10 @@
       </c>
       <c r="G114" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="7"/>
         <v>24</v>
@@ -5628,10 +5628,10 @@
       </c>
       <c r="G115" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="7"/>
         <v>25</v>
@@ -5658,10 +5658,10 @@
       </c>
       <c r="G116" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="7"/>
         <v>26</v>
@@ -5688,10 +5688,10 @@
       </c>
       <c r="G117" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="7"/>
         <v>27</v>
@@ -5718,10 +5718,10 @@
       </c>
       <c r="G118" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="7"/>
         <v>28</v>
@@ -5748,10 +5748,10 @@
       </c>
       <c r="G119" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="7"/>
         <v>29</v>
@@ -5778,10 +5778,10 @@
       </c>
       <c r="G120" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -5808,10 +5808,10 @@
       </c>
       <c r="G121" s="4">
         <f t="shared" si="12"/>
-        <v>73.78173472072308</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.503292177336846</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -5837,10 +5837,10 @@
       </c>
       <c r="G122" s="4">
         <f t="shared" si="12"/>
-        <v>73.716935733660847</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.438493190274613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -5867,10 +5867,10 @@
       </c>
       <c r="G123" s="4">
         <f t="shared" si="12"/>
-        <v>73.652136746598615</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.373694203212381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -5897,10 +5897,10 @@
       </c>
       <c r="G124" s="4">
         <f t="shared" si="12"/>
-        <v>73.587337759536382</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.308895216150148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -5927,10 +5927,10 @@
       </c>
       <c r="G125" s="4">
         <f t="shared" si="12"/>
-        <v>73.522538772474149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.244096229087916</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5957,10 +5957,10 @@
       </c>
       <c r="G126" s="4">
         <f t="shared" si="12"/>
-        <v>73.457739785411917</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.179297242025683</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -5987,10 +5987,10 @@
       </c>
       <c r="G127" s="4">
         <f t="shared" si="12"/>
-        <v>73.392940798349684</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.114498254963451</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -6017,10 +6017,10 @@
       </c>
       <c r="G128" s="4">
         <f t="shared" si="12"/>
-        <v>73.328141811287452</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76.049699267901218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -6047,10 +6047,10 @@
       </c>
       <c r="G129" s="4">
         <f t="shared" si="12"/>
-        <v>73.263342824225219</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.984900280838986</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -6077,10 +6077,10 @@
       </c>
       <c r="G130" s="4">
         <f t="shared" si="12"/>
-        <v>73.198543837162987</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.920101293776753</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ref="A131:A147" si="14">DAY(D131)</f>
         <v>10</v>
@@ -6107,10 +6107,10 @@
       </c>
       <c r="G131" s="4">
         <f t="shared" si="12"/>
-        <v>73.133744850100754</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.85530230671452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -6137,10 +6137,10 @@
       </c>
       <c r="G132" s="4">
         <f t="shared" ref="G132:G147" si="19">G131-F132</f>
-        <v>73.068945863038522</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.790503319652288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -6167,10 +6167,10 @@
       </c>
       <c r="G133" s="4">
         <f t="shared" si="19"/>
-        <v>73.004146875976289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.725704332590055</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -6197,10 +6197,10 @@
       </c>
       <c r="G134" s="4">
         <f t="shared" si="19"/>
-        <v>72.939347888914057</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.660905345527823</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -6227,10 +6227,10 @@
       </c>
       <c r="G135" s="4">
         <f t="shared" si="19"/>
-        <v>72.874548901851824</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.59610635846559</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -6257,10 +6257,10 @@
       </c>
       <c r="G136" s="4">
         <f t="shared" si="19"/>
-        <v>72.809749914789592</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.531307371403358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -6287,10 +6287,10 @@
       </c>
       <c r="G137" s="4">
         <f t="shared" si="19"/>
-        <v>72.744950927727359</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.466508384341125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -6317,10 +6317,10 @@
       </c>
       <c r="G138" s="4">
         <f t="shared" si="19"/>
-        <v>72.680151940665127</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.401709397278893</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -6347,10 +6347,10 @@
       </c>
       <c r="G139" s="4">
         <f t="shared" si="19"/>
-        <v>72.615352953602894</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.33691041021666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -6377,10 +6377,10 @@
       </c>
       <c r="G140" s="4">
         <f t="shared" si="19"/>
-        <v>72.550553966540662</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.272111423154428</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -6407,10 +6407,10 @@
       </c>
       <c r="G141" s="4">
         <f t="shared" si="19"/>
-        <v>72.485754979478429</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.207312436092195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -6437,10 +6437,10 @@
       </c>
       <c r="G142" s="4">
         <f t="shared" si="19"/>
-        <v>72.420955992416197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.142513449029963</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -6467,10 +6467,10 @@
       </c>
       <c r="G143" s="4">
         <f t="shared" si="19"/>
-        <v>72.356157005353964</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.07771446196773</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="14"/>
         <v>23</v>
@@ -6497,10 +6497,10 @@
       </c>
       <c r="G144" s="4">
         <f t="shared" si="19"/>
-        <v>72.291358018291731</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75.012915474905498</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -6527,10 +6527,10 @@
       </c>
       <c r="G145" s="4">
         <f t="shared" si="19"/>
-        <v>72.226559031229499</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+        <v>74.948116487843265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -6557,10 +6557,10 @@
       </c>
       <c r="G146" s="4">
         <f t="shared" si="19"/>
-        <v>72.161760044167266</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+        <v>74.883317500781033</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="14"/>
         <v>26</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="G147" s="4">
         <f t="shared" si="19"/>
-        <v>72.096961057105034</v>
+        <v>74.8185185137188</v>
       </c>
     </row>
   </sheetData>
